--- a/config/Main.xlsx
+++ b/config/Main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Naveen\experiment\nodejs\excel-processing\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA20D37-7742-45D6-96CF-C83C30EA24D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5C2C0D-2062-4103-ACED-3EB0AED0B12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>Sanity</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Firefox</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Feature</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -327,7 +327,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -360,67 +360,67 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
